--- a/config_Release/fish_3d_yutu_random_1.xlsx
+++ b/config_Release/fish_3d_yutu_random_1.xlsx
@@ -254,62 +254,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>18,19,20,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,42,43,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>37,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,42,43,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1057,19 +1057,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>180</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,19 +1077,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -1109,7 +1109,7 @@
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -1129,7 +1129,7 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1169,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
